--- a/malfiler/Exchange_students_2024H_vars_serie.xlsx
+++ b/malfiler/Exchange_students_2024H_vars_serie.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hioa365-my.sharepoint.com/personal/kyrremat_oslomet_no/Documents/Dokumenter/statistikk/Studentsvar/malfiler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="180" documentId="13_ncr:1_{12E3AAE7-C407-45EC-88A2-8A8B42BBB4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{516D88A4-75BE-4137-8B28-D3B062212A07}"/>
+  <xr:revisionPtr revIDLastSave="191" documentId="13_ncr:1_{12E3AAE7-C407-45EC-88A2-8A8B42BBB4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC942215-4E4F-4C9F-AA82-51CDFFCCA461}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FA7D840D-9D53-4472-AAA2-57617C6B2F63}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FA7D840D-9D53-4472-AAA2-57617C6B2F63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,36 +51,12 @@
     <t>Kommentar</t>
   </si>
   <si>
-    <t>to_what_extent_are_you_satisfied_with_the_admission_process_to_oslo_met_application_admission_and_acceptance</t>
-  </si>
-  <si>
-    <t>to_what_extent_are_you_satisfied_with_the_information_you_received_before_you_started</t>
-  </si>
-  <si>
     <t>to_what_extent_do_you_agree_with_the_following_statements_i_consider_myself_a_part_of_a_student_environment_in_my_studies</t>
   </si>
   <si>
-    <t>to_what_extent_do_you_agree_with_the_following_statements_my_course_courses_has_facilitated_various_group_activities</t>
-  </si>
-  <si>
-    <t>to_what_extent_do_you_agree_with_the_following_statements_the_academic_and_social_activities_in_my_course_courses_have_helped_me_get_to_know_fellow_students</t>
-  </si>
-  <si>
-    <t>to_what_extent_do_you_agree_with_the_following_statements_i_have_someone_to_discuss_and_collaborate_with_outside_of_my_course_courses</t>
-  </si>
-  <si>
-    <t>to_what_extent_do_you_agree_with_the_following_statements_i_have_someone_in_my_course_courses_i_can_talk_with_about_challenges_i_experience_as_a_student</t>
-  </si>
-  <si>
     <t>to_what_extent_do_you_agree_with_the_following_statements_i_feel_treated_equally_to_local_students</t>
   </si>
   <si>
-    <t>to_what_extent_do_you_agree_with_the_following_statements_i_feel_that_i_am_able_to_keep_up_with_the_academic_requirements_in_course_courses_so_far</t>
-  </si>
-  <si>
-    <t>to_what_extent_do_you_agree_with_the_following_statements_the_academic_content_of_my_course_courses_has_met_my_expectations_so_far</t>
-  </si>
-  <si>
     <t>what_is_your_age</t>
   </si>
   <si>
@@ -90,39 +66,12 @@
     <t>which_campus_do_you_study_at</t>
   </si>
   <si>
-    <t>To what extent are you satisfied with:   [the admission process to OsloMet (application, admission and acceptance)]</t>
-  </si>
-  <si>
-    <t>To what extent are you satisfied with:   [the information you received before you started]</t>
-  </si>
-  <si>
-    <t>Did you use the course catalogue on oslomet.no before deciding what courses you wanted to apply for? </t>
-  </si>
-  <si>
     <t>To what extent do you agree with the following statements? [I consider myself a part of a student environment in my studies]</t>
   </si>
   <si>
-    <t>To what extent do you agree with the following statements? [My course/courses has facilitated various group activities]</t>
-  </si>
-  <si>
-    <t>To what extent do you agree with the following statements? [The academic and social activities in my course/courses have helped me get to know fellow students	]</t>
-  </si>
-  <si>
-    <t>To what extent do you agree with the following statements? [I have someone to discuss and collaborate with outside of my course/courses ]</t>
-  </si>
-  <si>
-    <t>To what extent do you agree with the following statements? [I have someone in my course/courses  I can talk with about challenges I experience as a student	]</t>
-  </si>
-  <si>
     <t>To what extent do you agree with the following statements? [I feel treated equally to local students]</t>
   </si>
   <si>
-    <t>To what extent do you agree with the following statements? [I feel that I am able to keep up with the academic requirements in course/courses so far]</t>
-  </si>
-  <si>
-    <t>To what extent do you agree with the following statements? [The academic content of my course/courses has met my expectations so far]</t>
-  </si>
-  <si>
     <t>Are you satisfied with the academic support you have received so far?</t>
   </si>
   <si>
@@ -183,13 +132,64 @@
     <t>Campus</t>
   </si>
   <si>
-    <t>did_you_use_the_course_catalogue_on_oslomet_no_before_deciding_what_courses_you_wanted_to_apply_for</t>
-  </si>
-  <si>
     <t>are_you_satisfied_with_the_academic_support_you_have_received_so_far</t>
   </si>
   <si>
     <t>do_you_have_any_inclusion_needs</t>
+  </si>
+  <si>
+    <t>How satisfied are you with:   [the admission process to OsloMet (application, admission and acceptance)]</t>
+  </si>
+  <si>
+    <t>how_satisfied_are_you_with_the_admission_process_to_oslo_met_application_admission_and_acceptance</t>
+  </si>
+  <si>
+    <t>How satisfied are you with:   [the information you received before you started]</t>
+  </si>
+  <si>
+    <t>how_satisfied_are_you_with_the_information_you_received_before_you_started</t>
+  </si>
+  <si>
+    <t>Did you use the course catalogue on oslomet.no before deciding what course(s) you wanted to apply for? </t>
+  </si>
+  <si>
+    <t>did_you_use_the_course_catalogue_on_oslomet_no_before_deciding_what_course_s_you_wanted_to_apply_for</t>
+  </si>
+  <si>
+    <t>To what extent do you agree with the following statements? [My course(s) has facilitated various group activities]</t>
+  </si>
+  <si>
+    <t>to_what_extent_do_you_agree_with_the_following_statements_my_course_s_has_facilitated_various_group_activities</t>
+  </si>
+  <si>
+    <t>To what extent do you agree with the following statements? [The academic and social activities in my course(s) have helped me get to know fellow students	]</t>
+  </si>
+  <si>
+    <t>to_what_extent_do_you_agree_with_the_following_statements_the_academic_and_social_activities_in_my_course_s_have_helped_me_get_to_know_fellow_students</t>
+  </si>
+  <si>
+    <t>To what extent do you agree with the following statements? [I have someone to discuss and collaborate with outside of my course(s)]</t>
+  </si>
+  <si>
+    <t>to_what_extent_do_you_agree_with_the_following_statements_i_have_someone_to_discuss_and_collaborate_with_outside_of_my_course_s</t>
+  </si>
+  <si>
+    <t>To what extent do you agree with the following statements? [I have someone in my course(s)  I can talk with about challenges I experience as a student	]</t>
+  </si>
+  <si>
+    <t>to_what_extent_do_you_agree_with_the_following_statements_i_have_someone_in_my_course_s_i_can_talk_with_about_challenges_i_experience_as_a_student</t>
+  </si>
+  <si>
+    <t>To what extent do you agree with the following statements? [I am able to keep up with the academic requirements in my course(s) so far]</t>
+  </si>
+  <si>
+    <t>to_what_extent_do_you_agree_with_the_following_statements_i_am_able_to_keep_up_with_the_academic_requirements_in_my_course_s_so_far</t>
+  </si>
+  <si>
+    <t>To what extent do you agree with the following statements? [The academic content of my course(s) has met my expectations so far]</t>
+  </si>
+  <si>
+    <t>to_what_extent_do_you_agree_with_the_following_statements_the_academic_content_of_my_course_s_has_met_my_expectations_so_far</t>
   </si>
   <si>
     <t>snitt_as_num</t>
@@ -250,10 +250,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -428,9 +428,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-tema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013–2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -468,7 +468,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013–2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -574,7 +574,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013–2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -716,7 +716,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -726,13 +726,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11175198-0FD8-474C-BC80-0C4ED23782B1}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="115.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="37.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.5703125" style="2" customWidth="1"/>
@@ -758,227 +758,227 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>49</v>
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>10</v>
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>11</v>
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>13</v>
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>14</v>
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>50</v>
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>51</v>
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>15</v>
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>16</v>
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>17</v>
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
